--- a/Excels/TD.xlsx
+++ b/Excels/TD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23103239\Documents\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="528">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1504,6 +1504,126 @@
   </si>
   <si>
     <t>QWlydGVsIzMyMQ</t>
+  </si>
+  <si>
+    <t>Loan Services</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Credited On</t>
+  </si>
+  <si>
+    <t>Current Outstanding</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Total Loan Eligibility</t>
+  </si>
+  <si>
+    <t>Number of Loan Taken</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Total Loan Paid</t>
+  </si>
+  <si>
+    <t>Total Current Outstanding</t>
+  </si>
+  <si>
+    <t>Loan History</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Amount Credited</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Loan Channel</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Loan Recoveries</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Amount Recovered</t>
+  </si>
+  <si>
+    <t>Recovery Method</t>
+  </si>
+  <si>
+    <t>Date Recovered</t>
+  </si>
+  <si>
+    <t>More Recharge History</t>
+  </si>
+  <si>
+    <t>BenefitsVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Old Expiry Date</t>
+  </si>
+  <si>
+    <t>Detailed Usage History</t>
+  </si>
+  <si>
+    <t>Transaction Amount</t>
+  </si>
+  <si>
+    <t>Remaining Balance</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Search Tune Tab</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Renewal Amount</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Row9</t>
+  </si>
+  <si>
+    <t>Row10</t>
+  </si>
+  <si>
+    <t>Loan Amount (CFA)</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1824,6 +1944,10 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1832,37 +1956,7 @@
     <cellStyle name="Normal 5" xfId="1"/>
     <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2486,6 +2580,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2751,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -3401,24 +3548,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -3446,8 +3597,14 @@
       <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -3469,8 +3626,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3492,8 +3651,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -3515,8 +3676,10 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -3544,8 +3707,10 @@
       <c r="I5" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
@@ -3565,8 +3730,10 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
@@ -3586,8 +3753,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
@@ -3609,8 +3778,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -3632,9 +3803,201 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4032,13 +4395,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4130,13 +4493,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4527,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="39">
-        <f t="shared" ref="AI3:AI10" si="0">SUM(AB4,AD4,AF4,AH4)</f>
+        <f t="shared" ref="AI4:AI10" si="0">SUM(AB4,AD4,AF4,AH4)</f>
         <v>8</v>
       </c>
       <c r="AJ4" s="14" t="s">
@@ -5067,25 +5430,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6690,142 +7053,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="61" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="60" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="duplicateValues" dxfId="59" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="duplicateValues" dxfId="58" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E43 E6">
-    <cfRule type="duplicateValues" dxfId="57" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E18 E12 E9">
-    <cfRule type="duplicateValues" dxfId="56" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="55" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="54" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="53" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16 E14">
-    <cfRule type="duplicateValues" dxfId="52" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="51" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="50" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="49" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="duplicateValues" dxfId="48" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="duplicateValues" dxfId="47" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="45" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="duplicateValues" dxfId="44" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="43" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E41 E31:E36">
-    <cfRule type="duplicateValues" dxfId="42" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="41" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E47">
-    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E49">
-    <cfRule type="duplicateValues" dxfId="37" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="duplicateValues" dxfId="36" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:E52">
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E54">
-    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E61">
-    <cfRule type="duplicateValues" dxfId="32" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:E63">
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 E65:E66">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E30">
-    <cfRule type="duplicateValues" dxfId="27" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:E71">
-    <cfRule type="duplicateValues" dxfId="26" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="duplicateValues" dxfId="22" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E79">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88 E86 E84 E82">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87 E85 E83">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6995,10 +7358,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excels/TD.xlsx
+++ b/Excels/TD.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="533">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1624,6 +1624,21 @@
   </si>
   <si>
     <t>Loan Amount (CFA)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2615,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,6 +4009,29 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
